--- a/answers.xlsx
+++ b/answers.xlsx
@@ -1,109 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joana/Desktop/learning web dev/public copy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2DDCFE-EB4E-734E-8538-245639A328BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{78FB32B9-4B3B-7742-BC62-1C45F4D78F90}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Mean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
-  <si>
-    <t>Question 1</t>
-  </si>
-  <si>
-    <t>Question 2</t>
-  </si>
-  <si>
-    <t>Question 3</t>
-  </si>
-  <si>
-    <t>Question 4</t>
-  </si>
-  <si>
-    <t>Question 5</t>
-  </si>
-  <si>
-    <t>Question 6</t>
-  </si>
-  <si>
-    <t>Question 7</t>
-  </si>
-  <si>
-    <t>Question 8</t>
-  </si>
-  <si>
-    <t>Question 9</t>
-  </si>
-  <si>
-    <t>Question 10</t>
-  </si>
-  <si>
-    <t>Answers user 1</t>
-  </si>
-  <si>
-    <t>fred</t>
-  </si>
-  <si>
-    <t>ofred</t>
-  </si>
-  <si>
-    <t>arthruzinho</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,26 +43,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -163,44 +65,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -228,31 +130,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -280,23 +165,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -308,196 +176,249 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB53F524-886C-B341-9E4E-5CEF619E4450}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>User</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Question 1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Question 2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Question 3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Question 4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Question 5</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Question 6</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Question 7</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Question 8</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Question 9</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Question 10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Answers user 1</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -530,9 +451,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>fred</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -565,9 +486,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ofred</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -600,9 +521,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>arthruzinho</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -635,98 +556,203 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>joana</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>joana</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9988721-3F1F-404C-AB76-EA30EF593914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Question 1</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Question 2</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Question 3</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Question 4</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Question 5</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Question 6</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Question 7</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Question 8</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Question 9</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Question 10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <f>AVERAGE(Questions!B2:B1048576)</f>
         <v>4.25</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <f>AVERAGE(Questions!C2:C1048576)</f>
         <v>5.75</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <f>AVERAGE(Questions!D2:D1048576)</f>
         <v>5.75</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <f>AVERAGE(Questions!E2:E1048576)</f>
         <v>4.5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <f>AVERAGE(Questions!F2:F1048576)</f>
         <v>7.75</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <f>AVERAGE(Questions!G2:G1048576)</f>
         <v>5.75</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <f>AVERAGE(Questions!H2:H1048576)</f>
         <v>7.25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <f>AVERAGE(Questions!I2:I1048576)</f>
         <v>7</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <f>AVERAGE(Questions!J2:J1048576)</f>
         <v>7.25</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <f>AVERAGE(Questions!K2:K1048576)</f>
         <v>9.5</v>
       </c>
-      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/answers.xlsx
+++ b/answers.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,6 +415,36 @@
       <c r="K1" t="str">
         <v>Question 10</v>
       </c>
+      <c r="L1" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Q5</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Q6</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Q7</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Q8</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Q9</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Q10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -456,34 +486,34 @@
         <v>fred</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -491,34 +521,34 @@
         <v>ofred</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -526,34 +556,34 @@
         <v>arthruzinho</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -561,34 +591,34 @@
         <v>joana</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -596,34 +626,34 @@
         <v>joana</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +691,1098 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>segunda</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>segunda2</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>segunda3</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Joana</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>ultima</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ultima 2</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U39"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -710,49 +1822,49 @@
     <row r="2">
       <c r="A2">
         <f>AVERAGE(Questions!B2:B1048576)</f>
-        <v>4.25</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <f>AVERAGE(Questions!C2:C1048576)</f>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>AVERAGE(Questions!D2:D1048576)</f>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f>AVERAGE(Questions!E2:E1048576)</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <f>AVERAGE(Questions!F2:F1048576)</f>
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <f>AVERAGE(Questions!G2:G1048576)</f>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f>AVERAGE(Questions!H2:H1048576)</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <f>AVERAGE(Questions!I2:I1048576)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f>AVERAGE(Questions!J2:J1048576)</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <f>AVERAGE(Questions!K2:K1048576)</f>
-        <v>9.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>